--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2319277.711181898</v>
+        <v>2312841.18660631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516703</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8338395.266328828</v>
+        <v>8337805.286938408</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>152.38317954038</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>88.26829804972483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>83.4856539230277</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226222</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>68.32811513940342</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>48.10463200121415</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>178.46138465678</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>311.6438916275604</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>83.39207541228652</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>121.131410073659</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>58.31841880440592</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>1.602122571257843</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>147.1809587036861</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>63.89571038965067</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>19.82283505992477</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>227.1492782884466</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>243.2916936440886</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372781</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362793</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>182.161334217631</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993866</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177839</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.4932009668169</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338894</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901679</v>
+        <v>26.8252834809676</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>183.8980056671312</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>37.10498597358897</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>184.8120559713572</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993866</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177839</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442477</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.4932009668169</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901679</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>182.0690957560954</v>
+        <v>133.685515265636</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1904,7 +1904,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658107</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
@@ -2141,13 +2141,13 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658112</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730195</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542116</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820273</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954276</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345495</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852506</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568054</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291029</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838844</v>
+        <v>24.17382596574973</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828857</v>
+        <v>52.06849973564985</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161061</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.858744969676</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034454</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813241</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162023</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885335</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431689</v>
+        <v>70.57601873167818</v>
       </c>
       <c r="C34" t="n">
-        <v>62.1666094545993</v>
+        <v>55.72314698196058</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643902</v>
+        <v>41.29686219380031</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931813</v>
+        <v>41.22330424667942</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390854</v>
+        <v>42.97275566644669</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147754</v>
+        <v>53.79159358883882</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804958</v>
+        <v>41.14384575541087</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922151</v>
+        <v>18.9835613365828</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367743</v>
+        <v>9.882059701038713</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920474</v>
+        <v>88.00800320656603</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133768</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404467</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273126</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480628</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947753</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714517</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,16 +3749,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1276.136378260229</v>
+        <v>601.4551862591675</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.136378260229</v>
+        <v>208.279684762098</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.136378260229</v>
+        <v>208.279684762098</v>
       </c>
       <c r="E2" t="n">
-        <v>873.5528533767739</v>
+        <v>208.279684762098</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067517</v>
+        <v>195.4256503324799</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035829</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310447</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>575.6798488177177</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>1113.938633827809</v>
+        <v>588.4870060424333</v>
       </c>
       <c r="N2" t="n">
-        <v>1641.749917465271</v>
+        <v>1102.089684652121</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465271</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596793</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737741</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023263</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023263</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023263</v>
+        <v>1647.155266602909</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023263</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023263</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="W2" t="n">
-        <v>1765.79102099155</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="X2" t="n">
-        <v>1765.79102099155</v>
+        <v>1001.949931970564</v>
       </c>
       <c r="Y2" t="n">
-        <v>1676.631123971626</v>
+        <v>1001.949931970564</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>790.7440950022672</v>
+        <v>556.1927859813147</v>
       </c>
       <c r="C3" t="n">
-        <v>640.0898645623594</v>
+        <v>405.5385555414069</v>
       </c>
       <c r="D3" t="n">
-        <v>510.0008971838397</v>
+        <v>275.4495881628873</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>139.003097273775</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822423</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284324</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144822</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767086</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L3" t="n">
-        <v>885.6388105817786</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="M3" t="n">
-        <v>1423.89759559187</v>
+        <v>407.9705203262565</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.89759559187</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.41787818285</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818285</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737741</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635805</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S3" t="n">
-        <v>2150.865926635805</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1973.882114834714</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U3" t="n">
-        <v>1763.818971513356</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V3" t="n">
-        <v>1541.278969884423</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W3" t="n">
-        <v>1311.16172401771</v>
+        <v>1076.610414996757</v>
       </c>
       <c r="X3" t="n">
-        <v>1121.854646367721</v>
+        <v>887.3033373467688</v>
       </c>
       <c r="Y3" t="n">
-        <v>942.5404294432285</v>
+        <v>707.9891204222761</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>455.8512755737747</v>
+        <v>1464.135675425316</v>
       </c>
       <c r="C4" t="n">
-        <v>386.8329774531652</v>
+        <v>1464.135675425316</v>
       </c>
       <c r="D4" t="n">
-        <v>231.1998643556799</v>
+        <v>1464.135675425316</v>
       </c>
       <c r="E4" t="n">
-        <v>231.1998643556799</v>
+        <v>1464.135675425316</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865287</v>
+        <v>1306.809740638289</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865287</v>
+        <v>1306.809740638289</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865287</v>
+        <v>1306.809740638289</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865287</v>
+        <v>1173.715315275367</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475482</v>
+        <v>1173.715315275367</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046967</v>
+        <v>1255.550356385309</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784965</v>
+        <v>1419.677996259109</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167605</v>
+        <v>1605.969574597373</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479696</v>
+        <v>1789.159208628582</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896776</v>
+        <v>1951.86397567029</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662562</v>
+        <v>2071.740141446869</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363072</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363072</v>
+        <v>1951.261348449497</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363072</v>
+        <v>1748.445264632046</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363072</v>
+        <v>1512.72621280028</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363072</v>
+        <v>1464.135675425316</v>
       </c>
       <c r="V4" t="n">
-        <v>678.9633367571314</v>
+        <v>1464.135675425316</v>
       </c>
       <c r="W4" t="n">
-        <v>678.9633367571314</v>
+        <v>1464.135675425316</v>
       </c>
       <c r="X4" t="n">
-        <v>678.9633367571314</v>
+        <v>1464.135675425316</v>
       </c>
       <c r="Y4" t="n">
-        <v>455.8512755737747</v>
+        <v>1464.135675425316</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1573.785791884915</v>
+        <v>1110.204228944836</v>
       </c>
       <c r="C5" t="n">
-        <v>1573.785791884915</v>
+        <v>929.940204038998</v>
       </c>
       <c r="D5" t="n">
-        <v>1188.344663101582</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E5" t="n">
-        <v>873.5528533767739</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067517</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475482</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475482</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475482</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222167</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L5" t="n">
-        <v>483.8277400569111</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M5" t="n">
-        <v>1022.086525067002</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.897808704464</v>
+        <v>1635.122736924591</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596793</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596793</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737741</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023263</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964314</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964314</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964314</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964314</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.276500964314</v>
+        <v>1499.65683401178</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.276500964314</v>
+        <v>1110.204228944836</v>
       </c>
       <c r="Y5" t="n">
-        <v>1573.785791884915</v>
+        <v>1110.204228944836</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>712.7726751562661</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>562.1184447163583</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163583</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822423</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284324</v>
+        <v>90.8905007444268</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144822</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767086</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767086</v>
+        <v>407.9705203262565</v>
       </c>
       <c r="M6" t="n">
-        <v>480.017441865381</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875472</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466453</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818285</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737741</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635805</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535674</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734583</v>
+        <v>1898.178526015828</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413224</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784292</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917578</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675901</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>864.5690095972275</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1287724922401</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922401</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475482</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475482</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046967</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784965</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167605</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479696</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896776</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662562</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363072</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363072</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>886.035188194483</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>650.3161363627171</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U7" t="n">
-        <v>650.3161363627171</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="V7" t="n">
-        <v>384.3367911835413</v>
+        <v>420.1741200804926</v>
       </c>
       <c r="W7" t="n">
-        <v>384.3367911835413</v>
+        <v>420.1741200804926</v>
       </c>
       <c r="X7" t="n">
-        <v>384.3367911835413</v>
+        <v>420.1741200804926</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.3367911835413</v>
+        <v>197.0620588971359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.3701640835627</v>
+        <v>1140.655979072374</v>
       </c>
       <c r="C8" t="n">
-        <v>877.3701640835627</v>
+        <v>747.4804775753041</v>
       </c>
       <c r="D8" t="n">
-        <v>877.3701640835627</v>
+        <v>747.4804775753041</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>747.4804775753041</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2301.107383471473</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2301.107383471473</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2045.354653906071</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2045.354653906071</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>1674.355618874358</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>1674.355618874358</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1277.86490979496</v>
+        <v>1541.150724783771</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>233.1697913139477</v>
+        <v>336.040508561951</v>
       </c>
       <c r="C10" t="n">
-        <v>233.1697913139477</v>
+        <v>336.040508561951</v>
       </c>
       <c r="D10" t="n">
-        <v>233.1697913139477</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="E10" t="n">
-        <v>233.1697913139477</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F10" t="n">
-        <v>233.1697913139477</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G10" t="n">
-        <v>233.1697913139477</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>516.50019338277</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V10" t="n">
-        <v>516.50019338277</v>
+        <v>356.0635742790467</v>
       </c>
       <c r="W10" t="n">
-        <v>233.1697913139477</v>
+        <v>356.0635742790467</v>
       </c>
       <c r="X10" t="n">
-        <v>233.1697913139477</v>
+        <v>356.0635742790467</v>
       </c>
       <c r="Y10" t="n">
-        <v>233.1697913139477</v>
+        <v>356.0635742790467</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1965.32705002962</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C11" t="n">
-        <v>1643.947823678744</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D11" t="n">
         <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442403</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>722.313225118575</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527721</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>2589.224243848344</v>
+        <v>2556.972116723526</v>
       </c>
       <c r="W11" t="n">
-        <v>2290.021483962825</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="X11" t="n">
-        <v>2290.021483962825</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="Y11" t="n">
-        <v>1965.32705002962</v>
+        <v>2048.276335095744</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>84.60386270860994</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>84.60386270860994</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>568.1699486069232</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>424.5048630898964</v>
+        <v>655.0952099420614</v>
       </c>
       <c r="C13" t="n">
-        <v>326.0960203020795</v>
+        <v>556.6863671542445</v>
       </c>
       <c r="D13" t="n">
-        <v>242.2591823507883</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="E13" t="n">
-        <v>242.2591823507883</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964276</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138163</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1469.636395874136</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593279</v>
+        <v>1338.616587202879</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907707</v>
+        <v>1338.616587202879</v>
       </c>
       <c r="U13" t="n">
-        <v>1094.949589627777</v>
+        <v>1124.974070590974</v>
       </c>
       <c r="V13" t="n">
-        <v>900.7665195947948</v>
+        <v>930.7910005579918</v>
       </c>
       <c r="W13" t="n">
-        <v>689.2323926721665</v>
+        <v>930.7910005579918</v>
       </c>
       <c r="X13" t="n">
-        <v>689.2323926721665</v>
+        <v>768.5069534871687</v>
       </c>
       <c r="Y13" t="n">
-        <v>537.9166066350037</v>
+        <v>768.5069534871687</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1751.874884930728</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1430.495658579852</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1116.850804942714</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>786.0635552054523</v>
       </c>
       <c r="F14" t="n">
-        <v>655.772383357234</v>
+        <v>440.9653918816239</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914312</v>
+        <v>99.59891151582175</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411573</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2919.277540790264</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2620.074780904746</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.074780904746</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.380346971541</v>
+        <v>2080.573355495931</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>802.5350401618138</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>426.3522468384173</v>
+        <v>426.3522468384176</v>
       </c>
       <c r="C16" t="n">
-        <v>327.9434040506005</v>
+        <v>327.9434040506006</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1065660993092</v>
+        <v>244.1065660993093</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993092</v>
+        <v>244.1065660993093</v>
       </c>
       <c r="F16" t="n">
         <v>158.5769064584761</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,7 +5455,7 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593279</v>
@@ -5467,19 +5467,19 @@
         <v>1280.705150907707</v>
       </c>
       <c r="U16" t="n">
-        <v>1096.796973376298</v>
+        <v>1145.669276902014</v>
       </c>
       <c r="V16" t="n">
-        <v>902.6139033433158</v>
+        <v>951.4862068690318</v>
       </c>
       <c r="W16" t="n">
-        <v>691.0797764206874</v>
+        <v>739.9520799464034</v>
       </c>
       <c r="X16" t="n">
-        <v>691.0797764206874</v>
+        <v>577.6680328755804</v>
       </c>
       <c r="Y16" t="n">
-        <v>539.7639903835246</v>
+        <v>426.3522468384176</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5604,13 +5604,13 @@
         <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5665,25 +5665,25 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296507</v>
@@ -5735,10 +5735,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803432</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5908,22 +5908,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5969,16 +5969,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222409</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960407</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>683.142663665514</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072221</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838006</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,19 +6227,19 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6361,7 +6361,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
@@ -6376,7 +6376,7 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343939</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755555</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6549,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6622,13 +6622,13 @@
         <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222127</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654422</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800455</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463645</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057073</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230755</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189316</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076149</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766602</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041221</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.183244468651</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513232</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877764</v>
+        <v>2404.684126952453</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770093</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901614</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042563</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038074</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.27441990849</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397271</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761235</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394118</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.55749529177</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154193</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004158</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807924</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408846</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623649</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732527</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563845</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288499</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076149</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227153</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210285</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210285</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1869.370387987</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.896622945109</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216397</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.03536301433</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746246</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965095</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918637</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237435</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612311</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754649</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834596</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431857</v>
+        <v>86.73045008374183</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076149</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076149</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K34" t="n">
-        <v>256.655682077774</v>
+        <v>225.4160927170947</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076132</v>
+        <v>501.1958531658775</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458772</v>
+        <v>799.1395520791244</v>
       </c>
       <c r="N34" t="n">
-        <v>989.564301104157</v>
+        <v>1093.981306685317</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872936</v>
+        <v>1256.686073727025</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376585</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746636</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308578</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420492</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518091</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689357</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395467</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000893</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124374</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584457</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7096,19 +7096,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7439,22 +7439,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7497,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343059</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655151</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072231</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>182.0886348685452</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321626</v>
+        <v>193.5145772035909</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920141</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>503.4836023165848</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837471</v>
+        <v>139.5872508449601</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083966</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>235.4196087554356</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321626</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>595.6303569248633</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>137.2604756525664</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999108</v>
+        <v>611.1777065035418</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886019</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8532,16 +8532,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>351.5705978518764</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>179.0738312465423</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>105.1563108732267</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8775,10 +8775,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9009,13 +9009,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>514.986373519011</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9252,7 +9252,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>335.1420048916687</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O18" t="n">
         <v>92.68755888888889</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9963,7 +9963,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,19 +10434,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118428</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>436.3426582800314</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,7 +11382,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>67.21671145667833</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>114.0493980690325</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246575</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442477</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456087</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.75838359804925</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>27.60808577865486</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>212.6589215608533</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372781</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362793</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>82.79537283742758</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246575</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338894</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456087</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>29.43699568969064</v>
+        <v>77.82057618015016</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>732198.4139383551</v>
+        <v>731897.6401314748</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>732198.4139383551</v>
+        <v>731897.6401314748</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>650340.3866897589</v>
+        <v>650340.3866897587</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650340.3866897587</v>
+        <v>650340.3866897589</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734233.0053655836</v>
+        <v>734233.0053655837</v>
       </c>
     </row>
     <row r="9">
@@ -26314,19 +26314,19 @@
         <v>540996.5342800701</v>
       </c>
       <c r="C2" t="n">
-        <v>540996.5342800702</v>
+        <v>540996.5342800701</v>
       </c>
       <c r="D2" t="n">
-        <v>540996.5342800702</v>
+        <v>540996.5342800703</v>
       </c>
       <c r="E2" t="n">
-        <v>478077.0702732022</v>
+        <v>478077.070273202</v>
       </c>
       <c r="F2" t="n">
-        <v>478077.0702732022</v>
+        <v>478077.0702732021</v>
       </c>
       <c r="G2" t="n">
-        <v>540996.5342800703</v>
+        <v>540996.5342800705</v>
       </c>
       <c r="H2" t="n">
         <v>540996.5342800703</v>
@@ -26335,25 +26335,25 @@
         <v>540996.5342800703</v>
       </c>
       <c r="J2" t="n">
-        <v>540996.5342800708</v>
+        <v>540996.5342800709</v>
       </c>
       <c r="K2" t="n">
-        <v>540996.5342800709</v>
+        <v>540996.534280071</v>
       </c>
       <c r="L2" t="n">
-        <v>540996.53428007</v>
+        <v>540996.5342800705</v>
       </c>
       <c r="M2" t="n">
+        <v>540996.5342800705</v>
+      </c>
+      <c r="N2" t="n">
         <v>540996.5342800703</v>
       </c>
-      <c r="N2" t="n">
-        <v>540996.5342800705</v>
-      </c>
       <c r="O2" t="n">
-        <v>540996.5342800703</v>
+        <v>540996.5342800706</v>
       </c>
       <c r="P2" t="n">
-        <v>540996.5342800703</v>
+        <v>540996.5342800702</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918553</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106225</v>
+        <v>22558.42953401369</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.3255366819</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945021</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728584</v>
+        <v>62456.24177539685</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962311</v>
+        <v>43252.52447081124</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.804789239</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.804789239</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589432</v>
+        <v>86988.78851589427</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589432</v>
+        <v>86988.78851589427</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26439,13 +26439,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
         <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713761</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001366</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001366</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173842</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114031.4800589621</v>
+        <v>117480.6044526163</v>
       </c>
       <c r="C6" t="n">
-        <v>296236.4283508175</v>
+        <v>291339.2614866712</v>
       </c>
       <c r="D6" t="n">
-        <v>290796.886374993</v>
+        <v>283060.5971516019</v>
       </c>
       <c r="E6" t="n">
-        <v>225779.7005834227</v>
+        <v>225569.9690367331</v>
       </c>
       <c r="F6" t="n">
-        <v>337902.2620574674</v>
+        <v>337692.5305107777</v>
       </c>
       <c r="G6" t="n">
-        <v>300653.7344203923</v>
+        <v>300653.7344203924</v>
       </c>
       <c r="H6" t="n">
         <v>348079.0599570742</v>
@@ -26543,25 +26543,25 @@
         <v>348079.0599570742</v>
       </c>
       <c r="J6" t="n">
-        <v>135037.1423597897</v>
+        <v>141553.4275143626</v>
       </c>
       <c r="K6" t="n">
-        <v>341839.2915542918</v>
+        <v>341839.291554292</v>
       </c>
       <c r="L6" t="n">
-        <v>286656.7026196696</v>
+        <v>282607.865409198</v>
       </c>
       <c r="M6" t="n">
-        <v>305878.2304974511</v>
+        <v>304826.5354862631</v>
       </c>
       <c r="N6" t="n">
-        <v>348079.0599570744</v>
+        <v>348079.0599570742</v>
       </c>
       <c r="O6" t="n">
-        <v>320311.3659143031</v>
+        <v>320311.3659143032</v>
       </c>
       <c r="P6" t="n">
-        <v>348079.0599570742</v>
+        <v>348079.0599570741</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344353</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344353</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095185</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466073</v>
+        <v>78.07030221924606</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551303</v>
+        <v>17.58004954287433</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344353</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485981</v>
+        <v>72.62154181506514</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773694</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407459</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344353</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485981</v>
+        <v>72.62154181506514</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>256.6479484164968</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>304.2575039388801</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>51.59637205719345</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434373</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>100.1749516152672</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27555,10 +27555,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>234.4797718393039</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>210.7823618253187</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>86.91379800706045</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>124.5704364758581</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>56.38966468158884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27822,16 +27822,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>142.4695041748702</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>261.7174291561262</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,7 +27862,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>265.5445353816359</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>100.9527091187093</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>163.5331034444635</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>55.43512555207147</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.7104901066881</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,10 +28995,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,10 +29299,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
@@ -29314,7 +29314,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901232</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000714</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>86.2729119656567</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000714</v>
+        <v>43.49509683159692</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000714</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000714</v>
+        <v>76.79385455031087</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844044387</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000714</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000714</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000714</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30168,14 +30168,14 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634528637</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.636002634528595</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.636002634530001</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30885,16 +30885,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34702,16 +34702,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>28.84046513805352</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344353</v>
+        <v>43.7895256058636</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>413.4232554596666</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344353</v>
+        <v>47.20012879564816</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>82.17143902494388</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344353</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>446.5118655870792</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>47.20012879564816</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200679164</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344353</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>259.1834758025644</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>93.70171839237568</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>22.71185353989334</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257294</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488449</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>424.9260266620927</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257294</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488449</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35972,7 +35972,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>249.769892037502</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.63600263452903</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716079</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,10 +36291,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>88.29766032133878</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36537,7 +36537,7 @@
         <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36610,7 +36610,7 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261604</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338677</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449825</v>
+        <v>576.6378075765081</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273809</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576762</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868813</v>
+        <v>159.4555122371208</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624639</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750301</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371502</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380295</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133861</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>343.9555362307195</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>193.809314087322</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,10 +37953,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38102,7 +38102,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,16 +38181,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
